--- a/BWSC2019-EneMane/エネルギーマネジメント‗入出力データの種類と操作フロー‗201909301200.xlsx
+++ b/BWSC2019-EneMane/エネルギーマネジメント‗入出力データの種類と操作フロー‗201909301200.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7397F4B-48E4-417C-9142-E47C7404D554}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85A7A5F-D8BA-4410-AB5C-74C7B3E60B0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,14 @@
     <sheet name="タイミング毎の入出力値" sheetId="1" r:id="rId1"/>
     <sheet name="計算フロー" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -283,6 +290,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,16 +312,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6019,7 +6026,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>30</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -7150,16 +7157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4907644</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>226786</xdr:colOff>
+      <xdr:colOff>45358</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7174,7 +7181,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10341429" y="1333500"/>
+          <a:off x="10160001" y="1342572"/>
           <a:ext cx="4109357" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7221,7 +7228,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>254001</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6822380" cy="275717"/>
+    <xdr:ext cx="4799712" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -7236,7 +7243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9470571" y="2358572"/>
-          <a:ext cx="6822380" cy="275717"/>
+          <a:ext cx="4799712" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7278,7 +7285,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で使う平均勾配含めた曲線を決めておくためその場の使用曲線のへんこうはしないつもり</a:t>
+            <a:t>での勾配損失含めたシミュレーションをするため不要？</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7288,13 +7295,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2081894</xdr:colOff>
+      <xdr:colOff>1556213</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2567547</xdr:colOff>
+      <xdr:colOff>1900466</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>254001</xdr:rowOff>
     </xdr:to>
@@ -7313,9 +7320,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12396108" y="2159000"/>
-          <a:ext cx="485653" cy="199572"/>
+        <a:xfrm flipH="1">
+          <a:off x="11870427" y="2168072"/>
+          <a:ext cx="344253" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7676,24 +7683,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.90625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="67.453125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="50.90625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="67.453125" style="15" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -7701,10 +7708,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="266.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4"/>
     </row>
   </sheetData>
@@ -7726,7 +7733,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E8"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7754,119 +7761,119 @@
       </c>
     </row>
     <row r="2" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="F2:F8"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="F9:F15"/>
     <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="F2:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
